--- a/Assets/Excel/Role.xlsx
+++ b/Assets/Excel/Role.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\UnityProject\BlueValkyrie\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92322270-3B41-491C-AB41-0B36C3014BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D533EE4-0C3A-4617-9836-30F236DFC044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RoleInfo" sheetId="1" r:id="rId1"/>
-    <sheet name="ChooseRoleInfo" sheetId="2" r:id="rId2"/>
+    <sheet name="BattleRoleInfo" sheetId="3" r:id="rId2"/>
+    <sheet name="ChooseRoleInfo" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="126">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -755,6 +756,46 @@
   </si>
   <si>
     <t>光环、披肩双马尾、外套半脱、理科少女、学生会会计、优等生、教科书级傲娇</t>
+  </si>
+  <si>
+    <t>baseAtk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseDef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础防御力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseAmmo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础弹药量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseAp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础体力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1108,13 +1149,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="32.625" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
     <col min="4" max="4" width="12.75" customWidth="1"/>
     <col min="5" max="5" width="14.75" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
@@ -1710,11 +1751,457 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B19F864-1AF3-492C-BA6A-EBE487FD0B21}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="13.375" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="13.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>250</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1005</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1007</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1008</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1009</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1010</v>
+      </c>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1011</v>
+      </c>
+      <c r="B14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="H14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1013</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1014</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1015</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6945EFFC-A6E5-477D-AC00-318B71A81C8B}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Assets/Excel/Role.xlsx
+++ b/Assets/Excel/Role.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\UnityProject\BlueValkyrie\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D533EE4-0C3A-4617-9836-30F236DFC044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD4D68E-9B78-43FC-B3D6-4973544BC877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RoleInfo" sheetId="1" r:id="rId1"/>
     <sheet name="BattleRoleInfo" sheetId="3" r:id="rId2"/>
-    <sheet name="ChooseRoleInfo" sheetId="2" r:id="rId3"/>
+    <sheet name="RoleLevelInfo" sheetId="4" r:id="rId3"/>
+    <sheet name="RoleStarInfo" sheetId="5" r:id="rId4"/>
+    <sheet name="ChooseRoleInfo" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="144">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>砂狼白子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>砂狼 シロコ</t>
   </si>
   <si>
@@ -157,9 +155,6 @@
     <t>光环、兽耳、运动少女、自行车、及膝袜、死库水、运动鞋、头套、异色瞳</t>
   </si>
   <si>
-    <t>小鸟游星野</t>
-  </si>
-  <si>
     <t>小鳥遊 ホシノ</t>
   </si>
   <si>
@@ -173,9 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>黑见茜香</t>
-  </si>
-  <si>
     <t>黒見 セリカ</t>
   </si>
   <si>
@@ -189,9 +181,6 @@
     <t>光环、傲娇、马尾、猫耳、运动鞋</t>
   </si>
   <si>
-    <t>奥空绫音</t>
-  </si>
-  <si>
     <t>奥空 アヤネ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,9 +188,6 @@
     <t>写家记簿、收集古董</t>
   </si>
   <si>
-    <t>十六夜野乃美</t>
-  </si>
-  <si>
     <t>十六夜 ノノミ</t>
   </si>
   <si>
@@ -258,9 +244,6 @@
   <si>
     <t>Koharu</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陆八魔亚瑠</t>
   </si>
   <si>
     <t>陸八魔 アル</t>
@@ -410,9 +393,6 @@
     </r>
   </si>
   <si>
-    <t>天童爱丽丝</t>
-  </si>
-  <si>
     <t>天童 アリス</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -424,9 +404,6 @@
   </si>
   <si>
     <t>光环、机娘、中二病、龙须刘海、半马尾、超长发</t>
-  </si>
-  <si>
-    <t>白洲梓</t>
   </si>
   <si>
     <t>白洲 アズサ</t>
@@ -504,9 +481,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阿慈谷日富美</t>
-  </si>
-  <si>
     <t>阿慈谷 ヒフミ</t>
   </si>
   <si>
@@ -515,9 +489,6 @@
   <si>
     <t>光环、下双马尾、土妹子、冒失、元气、黑色连裤袜</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下江小春</t>
   </si>
   <si>
     <t>下江 コハル</t>
@@ -569,9 +540,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>空崎阳奈</t>
-  </si>
-  <si>
     <t>空崎 ヒナ</t>
   </si>
   <si>
@@ -698,9 +666,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小涂真纪</t>
-  </si>
-  <si>
     <t>小塗 マキ</t>
   </si>
   <si>
@@ -710,9 +675,6 @@
     <t>光环、萝莉、元气、短裙、丸子头、运动鞋、机枪、黑客</t>
   </si>
   <si>
-    <t>才羽绿</t>
-  </si>
-  <si>
     <t>Midori</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -730,9 +692,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>才羽桃井</t>
-  </si>
-  <si>
     <t>才羽 モモイ</t>
   </si>
   <si>
@@ -746,9 +705,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>早濑优香</t>
-  </si>
-  <si>
     <t>早瀬 ユウカ</t>
   </si>
   <si>
@@ -795,6 +751,138 @@
   </si>
   <si>
     <t>基础体力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所需经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addAp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addAtk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addDef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加Hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加Ap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加Atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加Def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>star</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costPiece</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥空 绫音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鸟游 星野</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十六夜 野乃美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑见 茜香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砂狼 白子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆八魔 亚瑠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空崎 阳奈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天童 爱丽丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小涂 真纪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>才羽 绿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>才羽 桃井</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早濑 优香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白洲 梓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿慈谷 日富美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下江 小春</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1149,8 +1237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1182,19 +1270,19 @@
         <v>21</v>
       </c>
       <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" t="s">
-        <v>27</v>
-      </c>
       <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
         <v>29</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1251,16 +1339,16 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1274,25 +1362,25 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F5">
         <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1306,25 +1394,25 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F6">
         <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1338,25 +1426,25 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F7">
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1370,25 +1458,25 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F8">
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1402,25 +1490,25 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" t="s">
         <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
       </c>
       <c r="F9">
         <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" t="s">
         <v>31</v>
-      </c>
-      <c r="J9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1428,31 +1516,31 @@
         <v>1006</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F10">
         <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -1460,31 +1548,31 @@
         <v>1007</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F11">
         <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H11" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J11" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1492,31 +1580,31 @@
         <v>1008</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F12">
         <v>-1</v>
       </c>
       <c r="G12" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="I12" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="J12" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1524,31 +1612,31 @@
         <v>1009</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="E13" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F13">
         <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H13" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="I13" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="J13" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1556,31 +1644,31 @@
         <v>1010</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="E14" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="F14">
         <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H14" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="I14" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="J14" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1588,31 +1676,31 @@
         <v>1011</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="E15" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F15">
         <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H15" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="I15" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="J15" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1620,31 +1708,31 @@
         <v>1012</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="E16" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="F16">
         <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I16" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="J16" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1652,31 +1740,31 @@
         <v>1013</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F17">
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="H17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I17" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J17" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1684,31 +1772,31 @@
         <v>1014</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="E18" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F18">
         <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="H18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I18" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J18" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -1716,31 +1804,31 @@
         <v>1015</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="E19" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F19">
         <v>15</v>
       </c>
       <c r="G19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19" t="s">
         <v>77</v>
       </c>
-      <c r="H19" t="s">
-        <v>86</v>
-      </c>
-      <c r="I19" t="s">
-        <v>87</v>
-      </c>
       <c r="J19" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1754,8 +1842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B19F864-1AF3-492C-BA6A-EBE487FD0B21}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1779,19 +1867,19 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="E1" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="F1" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="G1" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="H1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1836,19 +1924,19 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="F4" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="G4" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="H4" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1960,10 +2048,10 @@
         <v>1006</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -1986,10 +2074,10 @@
         <v>1007</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -2012,10 +2100,10 @@
         <v>1008</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D11">
         <v>9</v>
@@ -2038,10 +2126,10 @@
         <v>1009</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -2064,10 +2152,10 @@
         <v>1010</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -2090,10 +2178,10 @@
         <v>1011</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -2116,10 +2204,10 @@
         <v>1013</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D15">
         <v>8</v>
@@ -2142,10 +2230,10 @@
         <v>1014</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -2168,10 +2256,10 @@
         <v>1015</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -2197,6 +2285,900 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501863CD-3220-4D43-B19E-D760ABBB2A69}">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>200</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>300</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>400</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>500</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>600</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>700</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>800</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>900</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>1000</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>1100</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>1200</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>1300</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>1400</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>1500</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>1600</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>1700</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>1800</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>1900</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>2000</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>2100</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>2200</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>2300</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>2400</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>2500</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <v>2600</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31">
+        <v>2700</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32">
+        <v>2800</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33">
+        <v>2900</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <v>3000</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE100236-B2C8-462F-B690-85AF2F4B1C9C}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="10.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1000</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>3000</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>10000</v>
+      </c>
+      <c r="C7">
+        <v>60</v>
+      </c>
+      <c r="D7">
+        <v>300</v>
+      </c>
+      <c r="E7">
+        <v>300</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>30000</v>
+      </c>
+      <c r="C8">
+        <v>120</v>
+      </c>
+      <c r="D8">
+        <v>800</v>
+      </c>
+      <c r="E8">
+        <v>800</v>
+      </c>
+      <c r="F8">
+        <v>35</v>
+      </c>
+      <c r="G8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>80000</v>
+      </c>
+      <c r="C9">
+        <v>240</v>
+      </c>
+      <c r="D9">
+        <v>1000</v>
+      </c>
+      <c r="E9">
+        <v>1000</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6945EFFC-A6E5-477D-AC00-318B71A81C8B}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -2266,7 +3248,7 @@
         <v>1007</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2277,7 +3259,7 @@
         <v>1012</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2288,7 +3270,7 @@
         <v>1013</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Role.xlsx
+++ b/Assets/Excel/Role.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\UnityProject\BlueValkyrie\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD4D68E-9B78-43FC-B3D6-4973544BC877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DC324B-5571-43BD-9300-4290AC417313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3660" yWindow="4050" windowWidth="19155" windowHeight="10770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RoleInfo" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="148">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -883,6 +883,22 @@
   </si>
   <si>
     <t>下江 小春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atkType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击类型（0 无，1 SMG，2 MG，3 SG，4 SR，5 RL）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atkRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击范围</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1237,7 +1253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -1840,23 +1856,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B19F864-1AF3-492C-BA6A-EBE487FD0B21}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="11.375" customWidth="1"/>
     <col min="4" max="4" width="11.75" customWidth="1"/>
-    <col min="5" max="5" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="13.125" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="44.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1881,8 +1897,14 @@
       <c r="H1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1907,13 +1929,19 @@
       <c r="H2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1938,8 +1966,14 @@
       <c r="H4" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1002</v>
       </c>
@@ -1950,7 +1984,7 @@
         <v>9</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -1964,8 +1998,14 @@
       <c r="H5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1003</v>
       </c>
@@ -1976,7 +2016,7 @@
         <v>9</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -1990,8 +2030,14 @@
       <c r="H6">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1004</v>
       </c>
@@ -2002,7 +2048,7 @@
         <v>9</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -2016,8 +2062,14 @@
       <c r="H7">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1005</v>
       </c>
@@ -2028,7 +2080,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -2040,10 +2092,16 @@
         <v>10</v>
       </c>
       <c r="H8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3000</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1006</v>
       </c>
@@ -2068,8 +2126,14 @@
       <c r="H9">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1007</v>
       </c>
@@ -2080,7 +2144,7 @@
         <v>50</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -2094,8 +2158,14 @@
       <c r="H10">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1008</v>
       </c>
@@ -2106,7 +2176,7 @@
         <v>52</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -2120,8 +2190,14 @@
       <c r="H11">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1009</v>
       </c>
@@ -2132,7 +2208,7 @@
         <v>52</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>5</v>
@@ -2146,8 +2222,14 @@
       <c r="H12">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1010</v>
       </c>
@@ -2172,8 +2254,14 @@
       <c r="H13">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1011</v>
       </c>
@@ -2184,7 +2272,7 @@
         <v>52</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E14">
         <v>5</v>
@@ -2198,8 +2286,14 @@
       <c r="H14">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1013</v>
       </c>
@@ -2210,7 +2304,7 @@
         <v>54</v>
       </c>
       <c r="D15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -2224,8 +2318,14 @@
       <c r="H15">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1014</v>
       </c>
@@ -2236,7 +2336,7 @@
         <v>54</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -2250,8 +2350,14 @@
       <c r="H16">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1015</v>
       </c>
@@ -2262,7 +2368,7 @@
         <v>54</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -2274,6 +2380,12 @@
         <v>5</v>
       </c>
       <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
         <v>10</v>
       </c>
     </row>
